--- a/medicine/Psychotrope/Société_nationale_de_tabac_et_allumettes_du_Mali/Société_nationale_de_tabac_et_allumettes_du_Mali.xlsx
+++ b/medicine/Psychotrope/Société_nationale_de_tabac_et_allumettes_du_Mali/Société_nationale_de_tabac_et_allumettes_du_Mali.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Soci%C3%A9t%C3%A9_nationale_de_tabac_et_allumettes_du_Mali</t>
+          <t>Société_nationale_de_tabac_et_allumettes_du_Mali</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">La Société nationale de tabac et allumettes du Mali (Sonatam), est une entreprise malienne crée en 1965 en grâce à la coopération sino-malienne.
-La Sonatam a été privatisée en 2002. Depuis cette privatisation, la société connaît d’importantes difficultés. En 1990, elle réalisait un bénéfice de plus d’un milliard de francs CFA avec un chiffre d’affaires de plus de 15 milliards et elle employait 8 000 travailleurs, seulement  150 travailleurs en 2009[1].
+La Sonatam a été privatisée en 2002. Depuis cette privatisation, la société connaît d’importantes difficultés. En 1990, elle réalisait un bénéfice de plus d’un milliard de francs CFA avec un chiffre d’affaires de plus de 15 milliards et elle employait 8 000 travailleurs, seulement  150 travailleurs en 2009.
 </t>
         </is>
       </c>
